--- a/bin/Debug/Archivos/horario.xlsx
+++ b/bin/Debug/Archivos/horario.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17426"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VillarTechnologies\Documents\GrupoLI\Plantillas Unitarias\Plantillas Unitarias\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6930"/>
   </bookViews>
   <sheets>
     <sheet name="Horarios" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Fecha Fin</t>
   </si>
@@ -35,16 +30,19 @@
     <t>Nombre</t>
   </si>
   <si>
-    <t>Horario Prueba</t>
-  </si>
-  <si>
-    <t>Horario Prueba 2</t>
+    <t>Matutino</t>
+  </si>
+  <si>
+    <t>Vespertino</t>
+  </si>
+  <si>
+    <t>Nocturno</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -420,7 +418,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -428,10 +426,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -460,7 +458,7 @@
         <v>0.29166666666666669</v>
       </c>
       <c r="C2" s="2">
-        <v>0.75</v>
+        <v>0.54166666666666663</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -468,10 +466,21 @@
         <v>4</v>
       </c>
       <c r="B3" s="2">
-        <v>0.41666666666666669</v>
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="C3" s="2">
-        <v>0.83333333333333337</v>
+        <v>0.79166666666666663</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="2">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
